--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb1b15358cb4c4bb3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R4ba828289ed847b7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Redb871ca0b9d403e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf459156b2b1b4476"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rf8ddb4d44f4c49c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R20091229a4c14c40"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R54a46d44dc0f4fcb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9c1af1ad412b4085"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22c8310d02c64b93"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d5750d293654330"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R503b5030a1704a1f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c25ce4b90bf44bd"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2db7e753446b495e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4cac9a09a43e428a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf459156b2b1b4476"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rf8ddb4d44f4c49c7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R20091229a4c14c40"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb00b46e115134767"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rd824a34cb704434c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R248447aa77cc457f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9c1af1ad412b4085"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R590efa01e9e342c4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d5750d293654330"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14412e08b0084870"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c25ce4b90bf44bd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcaf5d52f31584d8c"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4cac9a09a43e428a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55dfb80b3a79474c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb00b46e115134767"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rd824a34cb704434c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R248447aa77cc457f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcb4c550e8c3844f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Raeaa98910c764acd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R38e0d48dda98406f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R590efa01e9e342c4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd855eb14482c4f38"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14412e08b0084870"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5bf696b45e04045"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcaf5d52f31584d8c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7486127826234f9c"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55dfb80b3a79474c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9103a3ddd3ad4506"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcb4c550e8c3844f9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Raeaa98910c764acd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R38e0d48dda98406f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R6ae48ebbf3024397"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rda21fce0bfa44068"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R6cb113ccac634196"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd855eb14482c4f38"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re11e00daa9e54659"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5bf696b45e04045"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf92e5a4b01e4290"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7486127826234f9c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30b5f3a2a06a4d98"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9103a3ddd3ad4506"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1c1af9fb7fe84ae6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R6ae48ebbf3024397"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rda21fce0bfa44068"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R6cb113ccac634196"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf8e370fe89ad494d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R4c43e69a33184585"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rc7deaedc703e47f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re11e00daa9e54659"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re165ad2daac84d28"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf92e5a4b01e4290"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61c35fcf2c3b40b0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30b5f3a2a06a4d98"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc6edf846903e4a53"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1c1af9fb7fe84ae6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3680c11681a2461f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf8e370fe89ad494d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R4c43e69a33184585"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rc7deaedc703e47f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4a6029ded03f406a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rb4701f8d36d7451a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R73e3d83be875449e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re165ad2daac84d28"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R186190dce15f4083"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61c35fcf2c3b40b0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3225b791e5d948b2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc6edf846903e4a53"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R63492b1f30c549e1"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3680c11681a2461f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R45b258374a21421d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4a6029ded03f406a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rb4701f8d36d7451a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R73e3d83be875449e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rea9d45d7e2044c66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R0bce9e097a944cc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R244b46ea7157426c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R186190dce15f4083"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0baa6a06dc684ae5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3225b791e5d948b2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9123ae890f3d4a14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R63492b1f30c549e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0600af0c76a543f5"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R45b258374a21421d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R81ebfd436200493a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rea9d45d7e2044c66"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R0bce9e097a944cc9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R244b46ea7157426c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2f85270167534f47"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R56cec6ada282425f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5cc18659fcd744fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0baa6a06dc684ae5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9135bf7e22f3465d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9123ae890f3d4a14"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a123c8aef094ae4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0600af0c76a543f5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55d2a73935cd42f5"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R81ebfd436200493a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rab6c1c984de141aa"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R2f85270167534f47"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R56cec6ada282425f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5cc18659fcd744fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb7d9f9b147d44622"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6d84ac8ddb2344d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rb5a0c20081a64f12"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9135bf7e22f3465d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdab0592d0fa04d66"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a123c8aef094ae4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re94c9ed6e5ea4cd8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55d2a73935cd42f5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R319e026bba594fa6"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rab6c1c984de141aa"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd07fd5579c614ef1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb7d9f9b147d44622"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6d84ac8ddb2344d5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rb5a0c20081a64f12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R95c3e49cde9f4a74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rc57365ef661d4dfc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R52ee27717b5b4205"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdab0592d0fa04d66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf6bd164b7c98418f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re94c9ed6e5ea4cd8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8fab65fe643e496a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R319e026bba594fa6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R17e4be8eab3847ca"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd07fd5579c614ef1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78e09410a2534709"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R95c3e49cde9f4a74"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rc57365ef661d4dfc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R52ee27717b5b4205"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb23e3674b2c64d9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6684445426044562"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R3e695a7b7a304b6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf6bd164b7c98418f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R191598956b4c4cb5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8fab65fe643e496a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3ffd81301ee245c6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R17e4be8eab3847ca"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R81a8e53c165844d9"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78e09410a2534709"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc6b4ce41afa4854"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb23e3674b2c64d9c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6684445426044562"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R3e695a7b7a304b6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R95d1319570c84b39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6f31ec358b5542de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rd86d306f7fa24684"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R191598956b4c4cb5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac4c483071c54eeb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +287,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3ffd81301ee245c6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raf70d112f5e645bb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R81a8e53c165844d9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb85835ff75e94a70"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc6b4ce41afa4854"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra0a3eeba461d47f0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R95d1319570c84b39"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6f31ec358b5542de"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rd86d306f7fa24684"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rac453e7ecc9d493e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rd60a340337a54095"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R0e2349a6ba56428f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -116,6 +116,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>totalAmount</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Orders'!$E$2:$E$101</c:f>
@@ -166,6 +169,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>totalAmount</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Orders'!$B$2:$B$101</c:f>
@@ -252,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac4c483071c54eeb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd02e97c4c8a4d73"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raf70d112f5e645bb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0de0232ad95541d3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb85835ff75e94a70"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd44589b931a4492d"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra0a3eeba461d47f0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1cd99b634e094af4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rac453e7ecc9d493e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rd60a340337a54095"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R0e2349a6ba56428f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R175291ba9edf43d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R5fa647ecaae2417d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R37c24d02f5b047ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -258,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd02e97c4c8a4d73"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d515baf4c394980"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0de0232ad95541d3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6245a09e680a4bc2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd44589b931a4492d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R449a4268ca804869"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1cd99b634e094af4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ca216988f7b4971"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R175291ba9edf43d6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R5fa647ecaae2417d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R37c24d02f5b047ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7865f946cc2c49aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rafd1cebf12b54255"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rf6fff3f07608421a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -258,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d515baf4c394980"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3166fec5054c41ea"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6245a09e680a4bc2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e0b496823a24aff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R449a4268ca804869"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R409d9709b3094d3d"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ca216988f7b4971"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re6b1b29521ed468b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7865f946cc2c49aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rafd1cebf12b54255"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rf6fff3f07608421a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R680e785a11cc462f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R0b5522ccc6344999"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2465e6731eec473a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -258,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3166fec5054c41ea"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35b87c88d04e4269"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e0b496823a24aff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f1221b87bcd456e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R409d9709b3094d3d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9279772921d5453e"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re6b1b29521ed468b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b389cf7fd8c42c8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R680e785a11cc462f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R0b5522ccc6344999"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2465e6731eec473a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcc659b069023460d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Raeb8a2ef531c40cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R7d5639578b784171"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -258,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35b87c88d04e4269"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc3c0af0c8ac4271"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f1221b87bcd456e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40bcbb5afa314e6b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9279772921d5453e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e3bff13c31a4858"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b389cf7fd8c42c8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R469ed8fc8ae34b1a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcc659b069023460d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Raeb8a2ef531c40cd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R7d5639578b784171"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Re94aa2d05a304c66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R62b50a95867d4d8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2fc0397adbad4e38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -258,7 +258,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc3c0af0c8ac4271"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4660ab30892345f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +293,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R40bcbb5afa314e6b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R799853ab03374611"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3860,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e3bff13c31a4858"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra450e7db78de4c4f"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R469ed8fc8ae34b1a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d3414d3bcf34f44"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/64_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Re94aa2d05a304c66"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R62b50a95867d4d8e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2fc0397adbad4e38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Raf3af9261c4f44e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rd83ff053d17346d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R60ce5729095a4510"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -130,6 +130,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
@@ -258,7 +266,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4660ab30892345f3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3bbed290be224814"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -293,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R799853ab03374611"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b83d300b01d486c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3860,13 +3868,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra450e7db78de4c4f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2f9079d94344062"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d3414d3bcf34f44"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R462eda1bd8ba4e3e"/>
 </x:worksheet>
 </file>